--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo1-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo1-Lgr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Rspo1</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H2">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I2">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J2">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,36 +558,36 @@
         <v>0.5260359999999999</v>
       </c>
       <c r="O2">
-        <v>0.414882210303281</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5154067662594317</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.08473960682755556</v>
+        <v>0.006049706242222222</v>
       </c>
       <c r="R2">
-        <v>0.7626564614479999</v>
+        <v>0.05444735618</v>
       </c>
       <c r="S2">
-        <v>0.1799781443477133</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="T2">
-        <v>0.2235862398337559</v>
+        <v>0.06325845361026364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,294 +596,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4832726666666667</v>
+        <v>0.5109063333333334</v>
       </c>
       <c r="H3">
-        <v>1.449818</v>
+        <v>1.532719</v>
       </c>
       <c r="I3">
-        <v>0.4338054027820291</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J3">
-        <v>0.4338054027820292</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2472935</v>
+        <v>0.1753453333333333</v>
       </c>
       <c r="N3">
-        <v>0.494587</v>
+        <v>0.5260359999999999</v>
       </c>
       <c r="O3">
-        <v>0.585117789696719</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4845932337405682</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1195101891943333</v>
+        <v>0.08958504132044444</v>
       </c>
       <c r="R3">
-        <v>0.717061135166</v>
+        <v>0.8062653718839999</v>
       </c>
       <c r="S3">
-        <v>0.2538272584343158</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="T3">
-        <v>0.2102191629482732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.5109063333333334</v>
-      </c>
-      <c r="H4">
-        <v>1.532719</v>
-      </c>
-      <c r="I4">
-        <v>0.4586105174212687</v>
-      </c>
-      <c r="J4">
-        <v>0.4586105174212687</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.1753453333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.5260359999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.414882210303281</v>
-      </c>
-      <c r="P4">
-        <v>0.5154067662594317</v>
-      </c>
-      <c r="Q4">
-        <v>0.08958504132044444</v>
-      </c>
-      <c r="R4">
-        <v>0.8062653718839999</v>
-      </c>
-      <c r="S4">
-        <v>0.1902693451360673</v>
-      </c>
-      <c r="T4">
-        <v>0.2363709637566609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.5109063333333334</v>
-      </c>
-      <c r="H5">
-        <v>1.532719</v>
-      </c>
-      <c r="I5">
-        <v>0.4586105174212687</v>
-      </c>
-      <c r="J5">
-        <v>0.4586105174212687</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.2472935</v>
-      </c>
-      <c r="N5">
-        <v>0.494587</v>
-      </c>
-      <c r="O5">
-        <v>0.585117789696719</v>
-      </c>
-      <c r="P5">
-        <v>0.4845932337405682</v>
-      </c>
-      <c r="Q5">
-        <v>0.1263438153421667</v>
-      </c>
-      <c r="R5">
-        <v>0.7580628920529999</v>
-      </c>
-      <c r="S5">
-        <v>0.2683411722852014</v>
-      </c>
-      <c r="T5">
-        <v>0.2222395536646078</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.119852</v>
-      </c>
-      <c r="H6">
-        <v>0.359556</v>
-      </c>
-      <c r="I6">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J6">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1753453333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.5260359999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.414882210303281</v>
-      </c>
-      <c r="P6">
-        <v>0.5154067662594317</v>
-      </c>
-      <c r="Q6">
-        <v>0.02101548889066666</v>
-      </c>
-      <c r="R6">
-        <v>0.189139400016</v>
-      </c>
-      <c r="S6">
-        <v>0.04463472081950039</v>
-      </c>
-      <c r="T6">
-        <v>0.05544956266901496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.119852</v>
-      </c>
-      <c r="H7">
-        <v>0.359556</v>
-      </c>
-      <c r="I7">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J7">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.2472935</v>
-      </c>
-      <c r="N7">
-        <v>0.494587</v>
-      </c>
-      <c r="O7">
-        <v>0.585117789696719</v>
-      </c>
-      <c r="P7">
-        <v>0.4845932337405682</v>
-      </c>
-      <c r="Q7">
-        <v>0.029638620562</v>
-      </c>
-      <c r="R7">
-        <v>0.177831723372</v>
-      </c>
-      <c r="S7">
-        <v>0.06294935897720186</v>
-      </c>
-      <c r="T7">
-        <v>0.05213451712768728</v>
+        <v>0.9367415463897364</v>
       </c>
     </row>
   </sheetData>
